--- a/data/georgia_census/samegrelo/walenjixa/population_total.xlsx
+++ b/data/georgia_census/samegrelo/walenjixa/population_total.xlsx
@@ -1367,13 +1367,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65C49B6F-18E4-41EE-9077-2F83C96B0B03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1E7CE58-69EF-464F-BE84-C0DA5C6B4ED0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44AA1C5F-E212-411E-99F3-AF24B2211D4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE105BE-D042-4C24-8242-A918308E3448}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D9E4D67-7099-4F62-A9E6-262A802F9911}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC230F6D-0E28-459A-951C-A5C4F0A56DCD}"/>
 </file>